--- a/User.xlsx
+++ b/User.xlsx
@@ -58,7 +58,7 @@
     <t>aaaaa</t>
   </si>
   <si>
-    <t>123456Hh!</t>
+    <t>3-?0z0gA</t>
   </si>
   <si>
     <t>2455745979@qq.com</t>
@@ -156,7 +156,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,12 +167,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -204,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -212,17 +206,20 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -535,7 +532,7 @@
     <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
@@ -553,7 +550,7 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -565,7 +562,7 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
@@ -582,7 +579,7 @@
       <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -601,7 +598,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -611,7 +608,7 @@
       <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -623,15 +620,15 @@
       <c r="G3" s="1">
         <v>0</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="4">
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="4">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -640,7 +637,7 @@
       <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -649,18 +646,18 @@
       <c r="F4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4">
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
         <v>0</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="4">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -669,7 +666,7 @@
       <c r="C5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -678,18 +675,18 @@
       <c r="F5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
         <v>0</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="4">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -698,7 +695,7 @@
       <c r="C6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -707,18 +704,18 @@
       <c r="F6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4">
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
         <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="4">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -727,7 +724,7 @@
       <c r="C7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -736,18 +733,18 @@
       <c r="F7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="4">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4">
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="4">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -756,7 +753,7 @@
       <c r="C8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -765,18 +762,18 @@
       <c r="F8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="4">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4">
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
         <v>0</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="4">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="21">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -785,7 +782,7 @@
       <c r="C9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -794,10 +791,10 @@
       <c r="F9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="4">
-        <v>0</v>
-      </c>
-      <c r="H9" s="4">
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
         <v>0</v>
       </c>
       <c r="I9" s="2" t="s">

--- a/User.xlsx
+++ b/User.xlsx
@@ -55,7 +55,7 @@
     <t>2023.8.22-3:49</t>
   </si>
   <si>
-    <t>aaaaa</t>
+    <t>admin</t>
   </si>
   <si>
     <t>3-?0z0gA</t>

--- a/User.xlsx
+++ b/User.xlsx
@@ -58,7 +58,7 @@
     <t>admin</t>
   </si>
   <si>
-    <t>3-?0z0gA</t>
+    <t>1234567a</t>
   </si>
   <si>
     <t>2455745979@qq.com</t>
